--- a/outputs/evaluation.xlsx
+++ b/outputs/evaluation.xlsx
@@ -782,13 +782,13 @@
         <v>2048</v>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.5001065189603749</v>
       </c>
     </row>
     <row r="11">
